--- a/all_planchette/16.11.2023.xlsx
+++ b/all_planchette/16.11.2023.xlsx
@@ -105,205 +105,205 @@
     <t>СА-13</t>
   </si>
   <si>
+    <t>Рожченко Т.В.</t>
+  </si>
+  <si>
+    <t>СА-14</t>
+  </si>
+  <si>
+    <t>Гуденко О.Н.</t>
+  </si>
+  <si>
+    <t>ИС-16</t>
+  </si>
+  <si>
+    <t>ИКС-11</t>
+  </si>
+  <si>
+    <t>РТ-31</t>
+  </si>
+  <si>
+    <t>Зурова А.Е.</t>
+  </si>
+  <si>
+    <t>406а</t>
+  </si>
+  <si>
+    <t>209а</t>
+  </si>
+  <si>
+    <t>210а</t>
+  </si>
+  <si>
+    <t>ИС-18</t>
+  </si>
+  <si>
+    <t>Видинеева Е.А.</t>
+  </si>
+  <si>
+    <t>ИС-28</t>
+  </si>
+  <si>
+    <t>Каламбет В.Б.</t>
+  </si>
+  <si>
+    <t>ИС-13</t>
+  </si>
+  <si>
+    <t>Рыбальченко Т.Б.</t>
+  </si>
+  <si>
+    <t>ПИ-42</t>
+  </si>
+  <si>
+    <t>Сулавко С.Н.</t>
+  </si>
+  <si>
+    <t>СА-42</t>
+  </si>
+  <si>
+    <t>Заводнов Н.А.</t>
+  </si>
+  <si>
+    <t>ПИ-41</t>
+  </si>
+  <si>
+    <t>ПИ-43</t>
+  </si>
+  <si>
+    <t>216а</t>
+  </si>
+  <si>
+    <t>ИКС-32</t>
+  </si>
+  <si>
+    <t>Якубенко С.Я.</t>
+  </si>
+  <si>
+    <t>ИС-15</t>
+  </si>
+  <si>
+    <t>Грицай О.П.</t>
+  </si>
+  <si>
+    <t>ИС-12</t>
+  </si>
+  <si>
+    <t>Мельникова М.В.</t>
+  </si>
+  <si>
+    <t>ПОКС-41b</t>
+  </si>
+  <si>
+    <t>Пивнева М.А.</t>
+  </si>
+  <si>
+    <t>ИКС-13</t>
+  </si>
+  <si>
+    <t>Гвоздецкая Г.И.</t>
+  </si>
+  <si>
+    <t>с/з1</t>
+  </si>
+  <si>
+    <t>2-ИС-З</t>
+  </si>
+  <si>
+    <t>Демиденко А.В.</t>
+  </si>
+  <si>
+    <t>с/з2</t>
+  </si>
+  <si>
+    <t>СА-12</t>
+  </si>
+  <si>
+    <t>Махаева П.А.</t>
+  </si>
+  <si>
+    <t>с/з3</t>
+  </si>
+  <si>
+    <t>СА-11</t>
+  </si>
+  <si>
+    <t>Смолянинова В.А.</t>
+  </si>
+  <si>
+    <t>с/з4</t>
+  </si>
+  <si>
+    <t>ИС-17</t>
+  </si>
+  <si>
+    <t>Корбан С.Н.</t>
+  </si>
+  <si>
+    <t>с/з5</t>
+  </si>
+  <si>
+    <t>с/з6</t>
+  </si>
+  <si>
+    <t>315а</t>
+  </si>
+  <si>
+    <t>с/з7</t>
+  </si>
+  <si>
+    <t>с/з8</t>
+  </si>
+  <si>
+    <t>с/з9</t>
+  </si>
+  <si>
+    <t>Общ1-3</t>
+  </si>
+  <si>
+    <t>Общ1-1</t>
+  </si>
+  <si>
+    <t>Общ1</t>
+  </si>
+  <si>
+    <t>СА-33</t>
+  </si>
+  <si>
+    <t>Голенко Д.А.</t>
+  </si>
+  <si>
+    <t>СА-38</t>
+  </si>
+  <si>
+    <t>Общ1-2</t>
+  </si>
+  <si>
+    <t>Пара 2</t>
+  </si>
+  <si>
+    <t>78.0% заполненость корпус Тургеневский</t>
+  </si>
+  <si>
+    <t>ИС-41</t>
+  </si>
+  <si>
+    <t>Прыгунова Т.А.</t>
+  </si>
+  <si>
+    <t>СА-31</t>
+  </si>
+  <si>
+    <t>Алексеенко О.Н.</t>
+  </si>
+  <si>
+    <t>ИБТ-32</t>
+  </si>
+  <si>
+    <t>Ермолина Л.В.</t>
+  </si>
+  <si>
     <t>Кравченко И.Ю.</t>
-  </si>
-  <si>
-    <t>СА-14</t>
-  </si>
-  <si>
-    <t>Гуденко О.Н.</t>
-  </si>
-  <si>
-    <t>РТ-31</t>
-  </si>
-  <si>
-    <t>Зурова А.Е.</t>
-  </si>
-  <si>
-    <t>ИКС-11</t>
-  </si>
-  <si>
-    <t>406а</t>
-  </si>
-  <si>
-    <t>209а</t>
-  </si>
-  <si>
-    <t>210а</t>
-  </si>
-  <si>
-    <t>ИС-18</t>
-  </si>
-  <si>
-    <t>Видинеева Е.А.</t>
-  </si>
-  <si>
-    <t>ИС-13</t>
-  </si>
-  <si>
-    <t>Рыбальченко Т.Б.</t>
-  </si>
-  <si>
-    <t>ИС-28</t>
-  </si>
-  <si>
-    <t>Каламбет В.Б.</t>
-  </si>
-  <si>
-    <t>СА-42</t>
-  </si>
-  <si>
-    <t>Заводнов Н.А.</t>
-  </si>
-  <si>
-    <t>ПИ-42</t>
-  </si>
-  <si>
-    <t>Сулавко С.Н.</t>
-  </si>
-  <si>
-    <t>ИС-16</t>
-  </si>
-  <si>
-    <t>Рожченко Т.В.</t>
-  </si>
-  <si>
-    <t>ПИ-41</t>
-  </si>
-  <si>
-    <t>216а</t>
-  </si>
-  <si>
-    <t>ИКС-32</t>
-  </si>
-  <si>
-    <t>Якубенко С.Я.</t>
-  </si>
-  <si>
-    <t>ПИ-43</t>
-  </si>
-  <si>
-    <t>ИС-15</t>
-  </si>
-  <si>
-    <t>Грицай О.П.</t>
-  </si>
-  <si>
-    <t>ИС-12</t>
-  </si>
-  <si>
-    <t>Мельникова М.В.</t>
-  </si>
-  <si>
-    <t>ИКС-13</t>
-  </si>
-  <si>
-    <t>Гвоздецкая Г.И.</t>
-  </si>
-  <si>
-    <t>ПОКС-41b</t>
-  </si>
-  <si>
-    <t>Пивнева М.А.</t>
-  </si>
-  <si>
-    <t>2-ИС-З</t>
-  </si>
-  <si>
-    <t>Демиденко А.В.</t>
-  </si>
-  <si>
-    <t>с/з1</t>
-  </si>
-  <si>
-    <t>с/з2</t>
-  </si>
-  <si>
-    <t>СА-12</t>
-  </si>
-  <si>
-    <t>Махаева П.А.</t>
-  </si>
-  <si>
-    <t>СА-11</t>
-  </si>
-  <si>
-    <t>Смолянинова В.А.</t>
-  </si>
-  <si>
-    <t>с/з3</t>
-  </si>
-  <si>
-    <t>с/з4</t>
-  </si>
-  <si>
-    <t>ИС-17</t>
-  </si>
-  <si>
-    <t>Корбан С.Н.</t>
-  </si>
-  <si>
-    <t>с/з5</t>
-  </si>
-  <si>
-    <t>315а</t>
-  </si>
-  <si>
-    <t>с/з6</t>
-  </si>
-  <si>
-    <t>с/з7</t>
-  </si>
-  <si>
-    <t>с/з8</t>
-  </si>
-  <si>
-    <t>с/з9</t>
-  </si>
-  <si>
-    <t>Общ1-3</t>
-  </si>
-  <si>
-    <t>Общ1-1</t>
-  </si>
-  <si>
-    <t>Общ1</t>
-  </si>
-  <si>
-    <t>СА-33</t>
-  </si>
-  <si>
-    <t>Голенко Д.А.</t>
-  </si>
-  <si>
-    <t>СА-38</t>
-  </si>
-  <si>
-    <t>Общ1-2</t>
-  </si>
-  <si>
-    <t>Пара 2</t>
-  </si>
-  <si>
-    <t>78.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>ИС-41</t>
-  </si>
-  <si>
-    <t>Прыгунова Т.А.</t>
-  </si>
-  <si>
-    <t>СА-31</t>
-  </si>
-  <si>
-    <t>Алексеенко О.Н.</t>
-  </si>
-  <si>
-    <t>ИБТ-32</t>
-  </si>
-  <si>
-    <t>Ермолина Л.В.</t>
   </si>
   <si>
     <t>Барна Н.В.</t>
@@ -1256,7 +1256,7 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
@@ -1271,19 +1271,19 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
-        <v>121.0</v>
+        <v>118.0</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>406.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>29</v>
@@ -1291,26 +1291,30 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
-        <v>122.0</v>
+        <v>121.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="2">
+        <v>122.0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="2">
         <v>408.0</v>
       </c>
@@ -1318,11 +1322,11 @@
       <c r="F16" s="13"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="2">
         <v>410.0</v>
       </c>
@@ -1330,11 +1334,11 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="2">
         <v>411.0</v>
       </c>
@@ -1342,120 +1346,114 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="2">
-        <v>212.0</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="2">
         <v>412.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
-        <v>213.0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>212.0</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="2">
         <v>414.0</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
-        <v>214.0</v>
-      </c>
-      <c r="B21" s="11" t="s">
+        <v>213.0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
-        <v>216.0</v>
-      </c>
-      <c r="B22" s="9" t="s">
+        <v>214.0</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D22" s="2">
         <v>415.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>51</v>
+      <c r="A23" s="2">
+        <v>216.0</v>
       </c>
       <c r="D23" s="2">
         <v>415.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="2">
-        <v>217.0</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="D24" s="2">
         <v>416.0</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
-        <v>220.0</v>
+        <v>217.0</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1467,134 +1465,136 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
-        <v>303.0</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+        <v>220.0</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="2">
         <v>420.0</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
-        <v>305.0</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>58</v>
-      </c>
+        <v>303.0</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2">
         <v>422.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>306.0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>305.0</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>307.0</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+        <v>306.0</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>310.0</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>68</v>
-      </c>
+        <v>307.0</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>312.0</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+        <v>310.0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
-        <v>314.0</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
+        <v>312.0</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="2">
+        <v>314.0</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -1604,7 +1604,7 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1614,7 +1614,7 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1624,7 +1624,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -1634,7 +1634,7 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -1644,13 +1644,13 @@
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -1658,13 +1658,13 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -1672,7 +1672,7 @@
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="12"/>
@@ -1711,10 +1711,10 @@
         <v>45246.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1753,7 +1753,7 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1762,10 +1762,10 @@
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -1782,7 +1782,7 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>9</v>
@@ -1798,7 +1798,7 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>11</v>
@@ -1858,10 +1858,10 @@
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -1897,16 +1897,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>68</v>
@@ -1917,13 +1917,13 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1933,10 +1933,10 @@
         <v>121.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -1945,7 +1945,7 @@
         <v>67</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1965,12 +1965,12 @@
         <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2013,7 +2013,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -2030,10 +2030,10 @@
         <v>414.0</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -2046,10 +2046,10 @@
         <v>415.0</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2066,10 +2066,10 @@
         <v>415.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -2077,19 +2077,19 @@
         <v>216.0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>415.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -2106,10 +2106,10 @@
         <v>416.0</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -2146,10 +2146,10 @@
         <v>420.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -2166,10 +2166,10 @@
         <v>422.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -2183,13 +2183,13 @@
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -2197,19 +2197,19 @@
         <v>305.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -2223,7 +2223,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -2233,13 +2233,13 @@
         <v>307.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2255,7 +2255,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -2267,7 +2267,7 @@
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -2283,7 +2283,7 @@
         <v>113</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -2295,7 +2295,7 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -2305,7 +2305,7 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -2315,10 +2315,10 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>114</v>
@@ -2329,7 +2329,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -2339,7 +2339,7 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>61</v>
@@ -2353,13 +2353,13 @@
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -2367,7 +2367,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -2453,7 +2453,7 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -2462,10 +2462,10 @@
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -2582,10 +2582,10 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -2618,7 +2618,7 @@
         <v>406.0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>68</v>
@@ -2629,13 +2629,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -2645,10 +2645,10 @@
         <v>118.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -2668,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2">
         <v>410.0</v>
@@ -2677,7 +2677,7 @@
         <v>127</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -2685,10 +2685,10 @@
         <v>121.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
@@ -2717,15 +2717,15 @@
         <v>10</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>128</v>
@@ -2734,10 +2734,10 @@
         <v>414.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -2754,7 +2754,7 @@
         <v>415.0</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>129</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>130</v>
@@ -2774,10 +2774,10 @@
         <v>416.0</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2805,10 +2805,10 @@
         <v>213.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2">
         <v>420.0</v>
@@ -2834,10 +2834,10 @@
         <v>422.0</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -2848,16 +2848,16 @@
         <v>26</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -2871,13 +2871,13 @@
         <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -2891,7 +2891,7 @@
         <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>110</v>
@@ -2911,7 +2911,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -2924,10 +2924,10 @@
         <v>135</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>136</v>
@@ -2941,13 +2941,13 @@
         <v>305.0</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -2963,7 +2963,7 @@
         <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -2973,13 +2973,13 @@
         <v>307.0</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -2989,13 +2989,13 @@
         <v>310.0</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -3011,10 +3011,10 @@
         <v>141</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>114</v>
@@ -3031,7 +3031,7 @@
         <v>113</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -3043,7 +3043,7 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>61</v>
@@ -3057,13 +3057,13 @@
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -3071,7 +3071,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>142</v>
@@ -3160,7 +3160,7 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>100</v>
@@ -3172,7 +3172,7 @@
         <v>146</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -3189,7 +3189,7 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>9</v>
@@ -3335,10 +3335,10 @@
         <v>154</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3348,10 +3348,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -3374,7 +3374,7 @@
         <v>140</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -3382,10 +3382,10 @@
         <v>121.0</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>128</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -3467,15 +3467,15 @@
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -3483,7 +3483,7 @@
         <v>415.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>129</v>
@@ -3506,7 +3506,7 @@
         <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -3514,10 +3514,10 @@
         <v>213.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
         <v>418.0</v>
@@ -3537,7 +3537,7 @@
         <v>157</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>420.0</v>
@@ -3554,7 +3554,7 @@
         <v>216.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>159</v>
@@ -3566,7 +3566,7 @@
         <v>160</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -3580,7 +3580,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -3596,13 +3596,13 @@
         <v>133</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>162</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -3616,7 +3616,7 @@
         <v>105</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>163</v>
@@ -3633,10 +3633,10 @@
         <v>135</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>164</v>
@@ -3656,7 +3656,7 @@
         <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>142</v>
@@ -3670,13 +3670,13 @@
         <v>306.0</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -3692,7 +3692,7 @@
         <v>111</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -3708,7 +3708,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -3724,7 +3724,7 @@
         <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3740,7 +3740,7 @@
         <v>113</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -3752,7 +3752,7 @@
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>169</v>
@@ -3766,7 +3766,7 @@
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>61</v>
@@ -3780,7 +3780,7 @@
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
@@ -3790,7 +3790,7 @@
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>136</v>
@@ -3972,10 +3972,10 @@
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -4022,7 +4022,7 @@
         <v>154</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
@@ -4045,7 +4045,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4093,7 +4093,7 @@
         <v>177</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -4114,7 +4114,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4125,7 +4125,7 @@
         <v>178</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -4161,7 +4161,7 @@
         <v>156</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -4169,7 +4169,7 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>181</v>
@@ -4181,7 +4181,7 @@
         <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -4217,7 +4217,7 @@
         <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -4231,7 +4231,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -4247,13 +4247,13 @@
         <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>150</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>152</v>
@@ -4287,7 +4287,7 @@
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>127</v>
@@ -4307,7 +4307,7 @@
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>166</v>
@@ -4324,10 +4324,10 @@
         <v>184</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -4339,7 +4339,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -4355,7 +4355,7 @@
         <v>185</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -4371,7 +4371,7 @@
         <v>168</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4387,7 +4387,7 @@
         <v>113</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>169</v>
@@ -4403,7 +4403,7 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>136</v>
@@ -4417,7 +4417,7 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -4427,7 +4427,7 @@
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
@@ -4659,7 +4659,7 @@
         <v>189</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
@@ -4678,7 +4678,7 @@
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -4712,12 +4712,12 @@
         <v>184</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4784,7 +4784,7 @@
         <v>161</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -4804,7 +4804,7 @@
         <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -4844,7 +4844,7 @@
         <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -4858,7 +4858,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -4874,7 +4874,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -4890,7 +4890,7 @@
         <v>191</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -4906,7 +4906,7 @@
         <v>109</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -4918,7 +4918,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -4930,7 +4930,7 @@
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -4942,7 +4942,7 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -4958,7 +4958,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -4970,7 +4970,7 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -4982,7 +4982,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
       <c r="D33" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -4992,7 +4992,7 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>136</v>
@@ -5006,7 +5006,7 @@
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -5016,7 +5016,7 @@
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -5220,7 +5220,7 @@
         <v>189</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
@@ -5239,7 +5239,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>175</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5337,7 +5337,7 @@
         <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -5389,7 +5389,7 @@
         <v>160</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -5399,7 +5399,7 @@
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -5415,7 +5415,7 @@
         <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -5431,7 +5431,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -5443,7 +5443,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -5459,7 +5459,7 @@
         <v>190</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -5471,7 +5471,7 @@
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -5483,7 +5483,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -5499,7 +5499,7 @@
         <v>197</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -5511,7 +5511,7 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -5523,7 +5523,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -5533,7 +5533,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>179</v>
@@ -5547,7 +5547,7 @@
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -5557,7 +5557,7 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>

--- a/all_planchette/16.11.2023.xlsx
+++ b/all_planchette/16.11.2023.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="197">
   <si>
     <t>Пара 1</t>
   </si>
@@ -291,21 +291,21 @@
     <t>Прыгунова Т.А.</t>
   </si>
   <si>
+    <t>ИБТ-32</t>
+  </si>
+  <si>
+    <t>Ермолина Л.В.</t>
+  </si>
+  <si>
+    <t>Кравченко И.Ю.</t>
+  </si>
+  <si>
     <t>СА-31</t>
   </si>
   <si>
     <t>Алексеенко О.Н.</t>
   </si>
   <si>
-    <t>ИБТ-32</t>
-  </si>
-  <si>
-    <t>Ермолина Л.В.</t>
-  </si>
-  <si>
-    <t>Кравченко И.Ю.</t>
-  </si>
-  <si>
     <t>Барна Н.В.</t>
   </si>
   <si>
@@ -414,15 +414,15 @@
     <t>Сулавко А.С.</t>
   </si>
   <si>
+    <t>Петрова М.Е.</t>
+  </si>
+  <si>
+    <t>Трищук С.А.</t>
+  </si>
+  <si>
     <t>Алябышева С.Н.</t>
   </si>
   <si>
-    <t>Петрова М.Е.</t>
-  </si>
-  <si>
-    <t>Трищук С.А.</t>
-  </si>
-  <si>
     <t>Иваненков П.П.</t>
   </si>
   <si>
@@ -495,9 +495,6 @@
     <t>СА-27</t>
   </si>
   <si>
-    <t>СА-36</t>
-  </si>
-  <si>
     <t>ИС-26</t>
   </si>
   <si>
@@ -540,9 +537,18 @@
     <t>68.0% заполненость корпус Тургеневский</t>
   </si>
   <si>
+    <t>ИС-35</t>
+  </si>
+  <si>
+    <t>Задорожный К.А.</t>
+  </si>
+  <si>
     <t>СА-45</t>
   </si>
   <si>
+    <t>Говорова О.А.</t>
+  </si>
+  <si>
     <t>Арутюнян М.М.</t>
   </si>
   <si>
@@ -561,16 +567,7 @@
     <t>ИС-25</t>
   </si>
   <si>
-    <t>ИС-35</t>
-  </si>
-  <si>
-    <t>Задорожный К.А.</t>
-  </si>
-  <si>
     <t>Студенникова Д.А.</t>
-  </si>
-  <si>
-    <t>Говорова О.А.</t>
   </si>
   <si>
     <t>ИБА-31</t>
@@ -637,14 +634,12 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -652,12 +647,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -725,87 +719,62 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,15 +1042,15 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1089,47 +1058,47 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1137,15 +1106,15 @@
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1153,10 +1122,10 @@
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2">
@@ -1173,19 +1142,19 @@
       <c r="A8" s="2">
         <v>110.0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>324.0</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1193,19 +1162,19 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>325.0</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1213,32 +1182,30 @@
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2">
         <v>326.0</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2">
         <v>401.0</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
         <v>404.0</v>
       </c>
@@ -1253,19 +1220,19 @@
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>406.0</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1273,19 +1240,19 @@
       <c r="A14" s="2">
         <v>118.0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>406.0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1293,71 +1260,71 @@
       <c r="A15" s="2">
         <v>121.0</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2">
         <v>122.0</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>408.0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2">
         <v>410.0</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2">
         <v>210.0</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2">
         <v>411.0</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2">
         <v>412.0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1365,8 +1332,8 @@
       <c r="A20" s="2">
         <v>212.0</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2">
         <v>414.0</v>
       </c>
@@ -1381,19 +1348,19 @@
       <c r="A21" s="2">
         <v>213.0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1401,10 +1368,10 @@
       <c r="A22" s="2">
         <v>214.0</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="2">
@@ -1424,10 +1391,10 @@
       <c r="D23" s="2">
         <v>415.0</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1435,19 +1402,19 @@
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="2">
         <v>416.0</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1455,27 +1422,27 @@
       <c r="A25" s="2">
         <v>217.0</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="2">
         <v>418.0</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>220.0</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2">
         <v>420.0</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1483,15 +1450,15 @@
       <c r="A27" s="2">
         <v>303.0</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2">
         <v>422.0</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1499,35 +1466,35 @@
       <c r="A28" s="2">
         <v>305.0</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>306.0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1535,22 +1502,22 @@
       <c r="A30" s="2">
         <v>307.0</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>310.0</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1567,115 +1534,115 @@
       <c r="A32" s="2">
         <v>312.0</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
         <v>314.0</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="12"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1707,7 +1674,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="15">
+      <c r="A1" s="9">
         <v>45246.0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1724,15 +1691,15 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1740,13 +1707,13 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2">
@@ -1761,10 +1728,10 @@
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1772,19 +1739,19 @@
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1792,15 +1759,15 @@
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1808,39 +1775,35 @@
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="2">
         <v>110.0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1848,47 +1811,45 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>326.0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2">
         <v>401.0</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1896,19 +1857,19 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>92</v>
+      <c r="B12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1916,35 +1877,35 @@
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>93</v>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>33</v>
+      <c r="B14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1952,19 +1913,19 @@
       <c r="A15" s="2">
         <v>122.0</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>408.0</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1972,31 +1933,31 @@
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="2">
         <v>410.0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="2">
         <v>411.0</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2004,15 +1965,15 @@
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2">
         <v>412.0</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2020,19 +1981,19 @@
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="2">
         <v>414.0</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2040,15 +2001,15 @@
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2056,19 +2017,19 @@
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2076,19 +2037,19 @@
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>415.0</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2096,16 +2057,16 @@
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="2">
         <v>416.0</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2116,19 +2077,19 @@
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="2">
         <v>418.0</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2136,19 +2097,19 @@
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="2">
         <v>420.0</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2156,19 +2117,19 @@
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="2">
         <v>422.0</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2176,19 +2137,19 @@
       <c r="A27" s="2">
         <v>303.0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2196,19 +2157,19 @@
       <c r="A28" s="2">
         <v>305.0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2216,17 +2177,17 @@
       <c r="A29" s="2">
         <v>306.0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
@@ -2241,107 +2202,105 @@
       <c r="D30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>310.0</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>312.0</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
         <v>314.0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="2"/>
       <c r="D36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -2349,28 +2308,28 @@
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="7" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" ht="12.75" customHeight="1"/>
   </sheetData>
@@ -2403,7 +2362,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="18">
+      <c r="A1" s="10">
         <v>45246.0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2420,15 +2379,15 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2436,15 +2395,19 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2452,7 +2415,7 @@
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2461,10 +2424,10 @@
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2472,19 +2435,19 @@
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2492,19 +2455,19 @@
       <c r="A6" s="2">
         <v>104.0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2512,19 +2475,19 @@
       <c r="A7" s="2">
         <v>106.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2532,19 +2495,19 @@
       <c r="A8" s="2">
         <v>109.0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2552,19 +2515,19 @@
       <c r="A9" s="2">
         <v>110.0</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2572,35 +2535,35 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>401.0</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>90</v>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>111.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2608,19 +2571,19 @@
       <c r="A12" s="2">
         <v>114.0</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2628,35 +2591,35 @@
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>92</v>
+      <c r="B13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>118.0</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2664,19 +2627,19 @@
       <c r="A15" s="2">
         <v>118.0</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>93</v>
+      <c r="C15" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2685,18 +2648,18 @@
         <v>121.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>92</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2704,19 +2667,19 @@
       <c r="A17" s="2">
         <v>122.0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2724,19 +2687,19 @@
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2744,19 +2707,19 @@
       <c r="A19" s="2">
         <v>210.0</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2764,19 +2727,13 @@
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>130</v>
-      </c>
       <c r="D20" s="2">
         <v>416.0</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2784,47 +2741,47 @@
       <c r="A21" s="2">
         <v>212.0</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D21" s="2">
         <v>418.0</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>131</v>
+      <c r="F21" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>213.0</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="2">
         <v>420.0</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>132</v>
+      <c r="F22" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2">
         <v>214.0</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2833,10 +2790,10 @@
       <c r="D23" s="2">
         <v>422.0</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2844,19 +2801,19 @@
       <c r="A24" s="2">
         <v>216.0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2864,19 +2821,19 @@
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>51</v>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2884,19 +2841,19 @@
       <c r="A26" s="2">
         <v>217.0</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2904,35 +2861,35 @@
       <c r="A27" s="2">
         <v>220.0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>303.0</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2940,83 +2897,83 @@
       <c r="A29" s="2">
         <v>305.0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>306.0</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="15" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>307.0</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>310.0</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
         <v>312.0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3024,59 +2981,57 @@
       <c r="A34" s="2">
         <v>314.0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
       <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3110,13 +3065,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="25">
+      <c r="A1" s="16">
         <v>45246.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="17" t="s">
         <v>144</v>
       </c>
       <c r="D1" s="4"/>
@@ -3127,15 +3082,15 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3143,15 +3098,19 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3159,19 +3118,19 @@
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3179,19 +3138,19 @@
       <c r="A5" s="2">
         <v>103.0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3202,16 +3161,16 @@
       <c r="B6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3219,15 +3178,19 @@
       <c r="A7" s="2">
         <v>106.0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3235,39 +3198,33 @@
       <c r="A8" s="2">
         <v>109.0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2">
         <v>110.0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>149</v>
       </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3284,26 +3241,30 @@
       <c r="D10" s="2">
         <v>401.0</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>111.0</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3311,19 +3272,19 @@
       <c r="A12" s="2">
         <v>114.0</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3331,27 +3292,27 @@
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>92</v>
+      <c r="C13" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -3361,19 +3322,16 @@
       <c r="A15" s="2">
         <v>118.0</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
+      <c r="C15" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3381,19 +3339,19 @@
       <c r="A16" s="2">
         <v>121.0</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>90</v>
+      <c r="B16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3401,19 +3359,19 @@
       <c r="A17" s="2">
         <v>122.0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3421,19 +3379,19 @@
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3450,10 +3408,10 @@
       <c r="D19" s="2">
         <v>414.0</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3461,15 +3419,19 @@
       <c r="A20" s="2">
         <v>210.0</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3477,15 +3439,15 @@
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="2">
         <v>415.0</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3493,19 +3455,19 @@
       <c r="A22" s="2">
         <v>212.0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="2">
         <v>416.0</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3513,10 +3475,10 @@
       <c r="A23" s="2">
         <v>213.0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="2">
@@ -3526,46 +3488,40 @@
         <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>214.0</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="D24" s="2">
         <v>420.0</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>132</v>
+      <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>216.0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>159</v>
+      <c r="C25" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="D25" s="2">
         <v>422.0</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3573,35 +3529,29 @@
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="D26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>217.0</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3609,19 +3559,19 @@
       <c r="A28" s="2">
         <v>220.0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3629,39 +3579,39 @@
       <c r="A29" s="2">
         <v>303.0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>305.0</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3669,17 +3619,17 @@
       <c r="A31" s="2">
         <v>306.0</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
@@ -3694,108 +3644,108 @@
       <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
         <v>310.0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2">
         <v>312.0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="2">
         <v>314.0</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3833,10 +3783,10 @@
         <v>45246.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3846,15 +3796,15 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3862,15 +3812,15 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3878,31 +3828,31 @@
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>139</v>
+      <c r="B5" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3910,15 +3860,15 @@
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3926,19 +3876,19 @@
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3946,51 +3896,55 @@
       <c r="A8" s="2">
         <v>110.0</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>149</v>
+      <c r="B8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>173</v>
+      <c r="E8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>90</v>
+      <c r="E9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2">
         <v>401.0</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3998,19 +3952,19 @@
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4018,19 +3972,19 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>92</v>
+      <c r="C12" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4038,27 +3992,27 @@
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>176</v>
+      <c r="B14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
@@ -4068,31 +4022,29 @@
       <c r="A15" s="2">
         <v>122.0</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4100,15 +4052,15 @@
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4116,15 +4068,15 @@
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4132,35 +4084,33 @@
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="2">
         <v>415.0</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D20" s="2">
         <v>416.0</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4169,7 +4119,7 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>181</v>
@@ -4177,46 +4127,36 @@
       <c r="D21" s="2">
         <v>418.0</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="D22" s="2">
         <v>420.0</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>132</v>
+      <c r="E22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2">
         <v>422.0</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4224,35 +4164,35 @@
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4260,19 +4200,19 @@
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4280,39 +4220,39 @@
       <c r="A27" s="2">
         <v>303.0</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>165</v>
+      <c r="F27" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>305.0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4320,79 +4260,79 @@
       <c r="A29" s="2">
         <v>306.0</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>307.0</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>310.0</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>185</v>
+      <c r="C31" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>312.0</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>168</v>
+      <c r="B32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
         <v>314.0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4400,53 +4340,53 @@
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4482,10 +4422,10 @@
         <v>45246.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4495,27 +4435,27 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4523,40 +4463,34 @@
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>185</v>
+      <c r="F5" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
@@ -4571,17 +4505,17 @@
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -4591,33 +4525,33 @@
       <c r="A8" s="2">
         <v>110.0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>149</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>107</v>
@@ -4627,20 +4561,20 @@
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>401.0</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="2">
         <v>404.0</v>
       </c>
@@ -4655,19 +4589,19 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>92</v>
+      <c r="B12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4675,41 +4609,41 @@
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
         <v>122.0</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>46</v>
@@ -4719,27 +4653,27 @@
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4747,43 +4681,47 @@
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D20" s="2">
         <v>416.0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4791,40 +4729,36 @@
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>190</v>
+      <c r="B21" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="D21" s="2">
         <v>418.0</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="2">
         <v>420.0</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>132</v>
+      <c r="F22" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -4832,18 +4766,18 @@
         <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D23" s="2">
         <v>422.0</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4860,15 +4794,15 @@
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>105</v>
@@ -4876,122 +4810,122 @@
       <c r="D25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>191</v>
+      <c r="B26" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>305.0</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>306.0</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>307.0</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>310.0</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>312.0</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>168</v>
+      <c r="B31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="30" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="30" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="14" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -5002,24 +4936,24 @@
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="30" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="30" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5055,10 +4989,10 @@
         <v>45246.0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5068,27 +5002,27 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5096,139 +5030,143 @@
       <c r="A4" s="2">
         <v>103.0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2">
         <v>320.0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="23">
+      <c r="A5" s="15">
         <v>104.0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>185</v>
+      <c r="F5" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="2">
         <v>109.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="2">
         <v>110.0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>325.0</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>195</v>
+      <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>326.0</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="2">
         <v>111.0</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7">
         <v>401.0</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="2">
         <v>114.0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="9">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>404.0</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>92</v>
+      <c r="B12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="2">
         <v>406.0</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5236,107 +5174,107 @@
       <c r="A13" s="2">
         <v>118.0</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2">
         <v>408.0</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="2">
         <v>122.0</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2">
         <v>410.0</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>176</v>
+      <c r="B16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D16" s="2">
         <v>411.0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2">
         <v>412.0</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2">
         <v>414.0</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2">
         <v>415.0</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>213.0</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2">
         <v>416.0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5344,51 +5282,51 @@
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2">
         <v>418.0</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
+      <c r="F21" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>216.0</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="2">
         <v>420.0</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>196</v>
+      <c r="E22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>182</v>
+      <c r="B23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="D23" s="2">
         <v>422.0</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5396,171 +5334,165 @@
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>305.0</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
         <v>306.0</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>190</v>
+      <c r="B28" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
         <v>307.0</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
         <v>310.0</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
         <v>312.0</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>197</v>
+      <c r="B31" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>314.0</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
